--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\lssvm_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView minimized="1" xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -25,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,24 +531,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -571,6 +576,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -617,7 +630,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,9 +662,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,6 +697,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -858,16 +873,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -886,7 +901,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -897,7 +912,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -908,7 +923,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -919,7 +934,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -930,7 +945,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -941,7 +956,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -952,7 +967,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -963,7 +978,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -974,7 +989,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1018,7 +1033,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1073,7 +1088,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1084,7 +1099,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1095,7 +1110,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>-1.9990000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>-1.899</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>-1.798</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1139,7 +1154,7 @@
         <v>-1.6950000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>-1.59</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>-1.482</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>-1.3680000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1183,7 +1198,7 @@
         <v>-1.246</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1194,7 +1209,7 @@
         <v>-1.1100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1205,7 +1220,7 @@
         <v>-0.95799999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1216,7 +1231,7 @@
         <v>-0.78400000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>-0.58399999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>-0.35599999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1249,7 +1264,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1260,7 +1275,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1271,7 +1286,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1282,7 +1297,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>1.464</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>1.5960000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>1.6639999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1348,7 +1363,7 @@
         <v>1.673</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1370,7 +1385,7 @@
         <v>1.5589999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1381,7 +1396,7 @@
         <v>1.468</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1392,7 +1407,7 @@
         <v>1.377</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>1.2989999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1425,7 +1440,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>1.3540000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1480,7 +1495,7 @@
         <v>1.4319999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>1.518</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>1.802</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1535,7 +1550,7 @@
         <v>1.901</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1546,7 +1561,7 @@
         <v>2.0009999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1568,7 +1583,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1612,7 +1627,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1722,7 +1737,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -31,6 +31,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,8 +530,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -874,13 +878,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -897,8 +906,9 @@
       <c r="B2">
         <v>-4</v>
       </c>
-      <c r="C2">
-        <v>-4</v>
+      <c r="C2" s="1">
+        <f>B2 + 4*EXP(-2*B2*B2) / SQRT(2*3.14159265359)</f>
+        <v>-3.9999999999999796</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,8 +918,9 @@
       <c r="B3">
         <v>-3.9</v>
       </c>
-      <c r="C3">
-        <v>-3.9</v>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C66" si="0">B3 + 4*EXP(-2*B3*B3) / SQRT(2*3.14159265359)</f>
+        <v>-3.8999999999999018</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,8 +930,9 @@
       <c r="B4">
         <v>-3.8</v>
       </c>
-      <c r="C4">
-        <v>-3.8</v>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.799999999999542</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,8 +942,9 @@
       <c r="B5">
         <v>-3.7</v>
       </c>
-      <c r="C5">
-        <v>-3.7</v>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.6999999999979489</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,8 +954,9 @@
       <c r="B6">
         <v>-3.6</v>
       </c>
-      <c r="C6">
-        <v>-3.6</v>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.599999999991168</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,8 +966,9 @@
       <c r="B7">
         <v>-3.5</v>
       </c>
-      <c r="C7">
-        <v>-3.5</v>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.4999999999634612</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,8 +978,9 @@
       <c r="B8">
         <v>-3.4</v>
       </c>
-      <c r="C8">
-        <v>-3.4</v>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3999999998547614</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,8 +990,9 @@
       <c r="B9">
         <v>-3.3</v>
       </c>
-      <c r="C9">
-        <v>-3.3</v>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.299999999445328</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,8 +1002,9 @@
       <c r="B10">
         <v>-3.2</v>
       </c>
-      <c r="C10">
-        <v>-3.2</v>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.1999999979647442</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,8 +1014,9 @@
       <c r="B11">
         <v>-3.1</v>
       </c>
-      <c r="C11">
-        <v>-3.1</v>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.0999999928248645</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,8 +1026,9 @@
       <c r="B12">
         <v>-3</v>
       </c>
-      <c r="C12">
-        <v>-3</v>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.9999999756964688</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,8 +1038,9 @@
       <c r="B13">
         <v>-2.9</v>
       </c>
-      <c r="C13">
-        <v>-2.9</v>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.8999999209072143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,8 +1050,9 @@
       <c r="B14">
         <v>-2.8</v>
       </c>
-      <c r="C14">
-        <v>-2.8</v>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.7999997526951796</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,8 +1062,9 @@
       <c r="B15">
         <v>-2.7</v>
       </c>
-      <c r="C15">
-        <v>-2.7</v>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.6999992570552624</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,8 +1074,9 @@
       <c r="B16">
         <v>-2.6</v>
       </c>
-      <c r="C16">
-        <v>-2.6</v>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5999978555858623</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,8 +1086,9 @@
       <c r="B17">
         <v>-2.5</v>
       </c>
-      <c r="C17">
-        <v>-2.5</v>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.4999940531219411</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,8 +1098,9 @@
       <c r="B18">
         <v>-2.4</v>
       </c>
-      <c r="C18">
-        <v>-2.4</v>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.3999841548036356</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,8 +1110,9 @@
       <c r="B19">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="C19">
-        <v>-2.2999999999999998</v>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2999594365917377</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,8 +1122,9 @@
       <c r="B20">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="C20">
-        <v>-2.2000000000000002</v>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.19990023011484</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,8 +1134,9 @@
       <c r="B21">
         <v>-2.1</v>
       </c>
-      <c r="C21">
-        <v>-2.1</v>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0997642277289739</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,8 +1146,9 @@
       <c r="B22">
         <v>-2</v>
       </c>
-      <c r="C22">
-        <v>-1.9990000000000001</v>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.9994646790969404</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,8 +1158,9 @@
       <c r="B23">
         <v>-1.9</v>
       </c>
-      <c r="C23">
-        <v>-1.899</v>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8988322122968342</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,8 +1170,9 @@
       <c r="B24">
         <v>-1.8</v>
       </c>
-      <c r="C24">
-        <v>-1.798</v>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.7975523922795451</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,8 +1182,9 @@
       <c r="B25">
         <v>-1.7</v>
       </c>
-      <c r="C25">
-        <v>-1.6950000000000001</v>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.695071123326108</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,8 +1194,9 @@
       <c r="B26">
         <v>-1.6</v>
       </c>
-      <c r="C26">
-        <v>-1.59</v>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5904636471941411</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,8 +1206,9 @@
       <c r="B27">
         <v>-1.5</v>
       </c>
-      <c r="C27">
-        <v>-1.482</v>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.4822726063522484</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,8 +1218,9 @@
       <c r="B28">
         <v>-1.4</v>
       </c>
-      <c r="C28">
-        <v>-1.3680000000000001</v>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3683381936680812</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,8 +1230,9 @@
       <c r="B29">
         <v>-1.3</v>
       </c>
-      <c r="C29">
-        <v>-1.246</v>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.2456681230652593</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,8 +1242,9 @@
       <c r="B30">
         <v>-1.2</v>
       </c>
-      <c r="C30">
-        <v>-1.1100000000000001</v>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1104218788206313</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,8 +1254,9 @@
       <c r="B31">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C31">
-        <v>-0.95799999999999996</v>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.95810162861507908</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,8 +1266,9 @@
       <c r="B32">
         <v>-1</v>
       </c>
-      <c r="C32">
-        <v>-0.78400000000000003</v>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.78403613394725491</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,8 +1278,9 @@
       <c r="B33">
         <v>-0.9</v>
       </c>
-      <c r="C33">
-        <v>-0.58399999999999996</v>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.58419936679643381</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,8 +1290,9 @@
       <c r="B34">
         <v>-0.8</v>
       </c>
-      <c r="C34">
-        <v>-0.35599999999999998</v>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.35631666128219247</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,8 +1302,9 @@
       <c r="B35">
         <v>-0.7</v>
       </c>
-      <c r="C35">
-        <v>-0.10100000000000001</v>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.10109013745704021</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,8 +1314,9 @@
       <c r="B36">
         <v>-0.6</v>
       </c>
-      <c r="C36">
-        <v>0.17699999999999999</v>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1767442199328263</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,8 +1326,9 @@
       <c r="B37">
         <v>-0.5</v>
       </c>
-      <c r="C37">
-        <v>0.46800000000000003</v>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4678828980765416</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,8 +1338,9 @@
       <c r="B38">
         <v>-0.4</v>
       </c>
-      <c r="C38">
-        <v>0.75900000000000001</v>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7587662110458927</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,8 +1350,9 @@
       <c r="B39">
         <v>-0.3</v>
       </c>
-      <c r="C39">
-        <v>1.0329999999999999</v>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0328984115671547</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,8 +1362,9 @@
       <c r="B40">
         <v>-0.2</v>
       </c>
-      <c r="C40">
-        <v>1.2729999999999999</v>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2730805612132448</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,8 +1374,9 @@
       <c r="B41">
         <v>-0.1</v>
       </c>
-      <c r="C41">
-        <v>1.464</v>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4641707759017719</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1337,8 +1386,9 @@
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42">
-        <v>1.5960000000000001</v>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5957691216056782</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,10 +1396,11 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1</v>
-      </c>
-      <c r="C43">
-        <v>1.6639999999999999</v>
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6641707759017721</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,8 +1410,9 @@
       <c r="B44">
         <v>0.2</v>
       </c>
-      <c r="C44">
-        <v>1.673</v>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6730805612132447</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,8 +1422,9 @@
       <c r="B45">
         <v>0.3</v>
       </c>
-      <c r="C45">
-        <v>1.633</v>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6328984115671548</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,8 +1434,9 @@
       <c r="B46">
         <v>0.4</v>
       </c>
-      <c r="C46">
-        <v>1.5589999999999999</v>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5587662110458926</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,8 +1446,9 @@
       <c r="B47">
         <v>0.5</v>
       </c>
-      <c r="C47">
-        <v>1.468</v>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4678828980765415</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,8 +1458,9 @@
       <c r="B48">
         <v>0.6</v>
       </c>
-      <c r="C48">
-        <v>1.377</v>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3767442199328261</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,8 +1470,9 @@
       <c r="B49">
         <v>0.7</v>
       </c>
-      <c r="C49">
-        <v>1.2989999999999999</v>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2989098625429598</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1425,8 +1482,9 @@
       <c r="B50">
         <v>0.8</v>
       </c>
-      <c r="C50">
-        <v>1.244</v>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2436833387178077</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,8 +1494,9 @@
       <c r="B51">
         <v>0.9</v>
       </c>
-      <c r="C51">
-        <v>1.216</v>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2158006332035662</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,8 +1506,9 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52">
-        <v>1.216</v>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2159638660527452</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,8 +1518,9 @@
       <c r="B53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C53">
-        <v>1.242</v>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2418983713849212</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,8 +1530,9 @@
       <c r="B54">
         <v>1.2</v>
       </c>
-      <c r="C54">
-        <v>1.29</v>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2895781211793687</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,8 +1542,9 @@
       <c r="B55">
         <v>1.3</v>
       </c>
-      <c r="C55">
-        <v>1.3540000000000001</v>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3543318769347408</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,8 +1554,9 @@
       <c r="B56">
         <v>1.4</v>
       </c>
-      <c r="C56">
-        <v>1.4319999999999999</v>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4316618063319186</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,10 +1564,11 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.5</v>
-      </c>
-      <c r="C57">
-        <v>1.518</v>
+        <v>1.50000000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5177273936477604</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,8 +1578,9 @@
       <c r="B58">
         <v>1.6</v>
       </c>
-      <c r="C58">
-        <v>1.61</v>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.609536352805859</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,8 +1590,9 @@
       <c r="B59">
         <v>1.7</v>
       </c>
-      <c r="C59">
-        <v>1.7050000000000001</v>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7049288766738919</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,10 +1600,11 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.8</v>
-      </c>
-      <c r="C60">
-        <v>1.802</v>
+        <v>1.80000000000001</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.802447607720465</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,10 +1612,11 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.9</v>
-      </c>
-      <c r="C61">
-        <v>1.901</v>
+        <v>1.9000000000000099</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9011677877031756</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,10 +1624,11 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>2.0009999999999999</v>
+        <v>2.0000000000000102</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0005353209030696</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,8 +1638,9 @@
       <c r="B63">
         <v>2.1</v>
       </c>
-      <c r="C63">
-        <v>2.1</v>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1002357722710263</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,10 +1648,11 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C64">
-        <v>2.2000000000000002</v>
+        <v>2.2000000000000099</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000997698851701</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,10 +1660,11 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C65">
-        <v>2.2999999999999998</v>
+        <v>2.30000000000001</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3000405634082721</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,10 +1672,11 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.4</v>
-      </c>
-      <c r="C66">
-        <v>2.4</v>
+        <v>2.4000000000000101</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4000158451963745</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,10 +1684,11 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.5</v>
-      </c>
-      <c r="C67">
-        <v>2.5</v>
+        <v>2.5000000000000102</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C130" si="1">B67 + 4*EXP(-2*B67*B67) / SQRT(2*3.14159265359)</f>
+        <v>2.5000059468780691</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,10 +1696,11 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.6</v>
-      </c>
-      <c r="C68">
-        <v>2.6</v>
+        <v>2.6000000000000099</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6000021444141477</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,10 +1708,11 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.7</v>
-      </c>
-      <c r="C69">
-        <v>2.7</v>
+        <v>2.7000000000000099</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7000007429447477</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,10 +1720,11 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.8</v>
-      </c>
-      <c r="C70">
-        <v>2.8</v>
+        <v>2.80000000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8000002473048302</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,10 +1732,11 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.9</v>
-      </c>
-      <c r="C71">
-        <v>2.9</v>
+        <v>2.9000000000000101</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9000000790927958</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,10 +1744,11 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
+        <v>3.0000000000000102</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0000000243035414</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,10 +1756,11 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.1</v>
-      </c>
-      <c r="C73">
-        <v>3.1</v>
+        <v>3.1000000000000099</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1000000071751455</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,10 +1768,11 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.2</v>
-      </c>
-      <c r="C74">
-        <v>3.2</v>
+        <v>3.2000000000000099</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2000000020352659</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,10 +1780,11 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.3</v>
-      </c>
-      <c r="C75">
-        <v>3.3</v>
+        <v>3.30000000000001</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3000000005546819</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,10 +1792,11 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.4</v>
-      </c>
-      <c r="C76">
-        <v>3.4</v>
+        <v>3.4000000000000101</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4000000001452486</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,10 +1804,11 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.5</v>
-      </c>
-      <c r="C77">
-        <v>3.5</v>
+        <v>3.5000000000000102</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="1"/>
+        <v>3.500000000036549</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,10 +1816,11 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.6</v>
-      </c>
-      <c r="C78">
-        <v>3.6</v>
+        <v>3.6000000000000099</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6000000000088419</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,10 +1828,11 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.7</v>
-      </c>
-      <c r="C79">
-        <v>3.7</v>
+        <v>3.7000000000000099</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7000000000020612</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,10 +1840,11 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.8</v>
-      </c>
-      <c r="C80">
-        <v>3.8</v>
+        <v>3.80000000000001</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8000000000004679</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,10 +1852,11 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.9</v>
-      </c>
-      <c r="C81">
-        <v>3.9</v>
+        <v>3.9000000000000101</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9000000000001083</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,11 +1864,252 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
+        <v>4.0000000000000098</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
